--- a/Veille/FileExample/chart_spire.xlsx
+++ b/Veille/FileExample/chart_spire.xlsx
@@ -3807,11 +3807,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="16493259"/>
-        <c:axId val="14221611"/>
+        <c:axId val="22877402"/>
+        <c:axId val="4570028"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="16493259"/>
+        <c:axId val="22877402"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,14 +3821,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14221611"/>
+        <c:crossAx val="4570028"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14221611"/>
+        <c:axId val="4570028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="16493259"/>
+        <c:crossAx val="22877402"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits/>

--- a/Veille/FileExample/chart_spire.xlsx
+++ b/Veille/FileExample/chart_spire.xlsx
@@ -3807,11 +3807,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="22877402"/>
-        <c:axId val="4570028"/>
+        <c:axId val="44143566"/>
+        <c:axId val="61747774"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22877402"/>
+        <c:axId val="44143566"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,14 +3821,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="4570028"/>
+        <c:crossAx val="61747774"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4570028"/>
+        <c:axId val="61747774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="22877402"/>
+        <c:crossAx val="44143566"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits/>
